--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efemp1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efemp1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6698093333333333</v>
+        <v>1.558369333333333</v>
       </c>
       <c r="H2">
-        <v>2.009428</v>
+        <v>4.675108</v>
       </c>
       <c r="I2">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675516</v>
       </c>
       <c r="J2">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675517</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>1.809392121837333</v>
+        <v>1.159364449226667</v>
       </c>
       <c r="R2">
-        <v>16.28452909653599</v>
+        <v>10.43428004304</v>
       </c>
       <c r="S2">
-        <v>0.0004888115989855216</v>
+        <v>0.0003132589231442811</v>
       </c>
       <c r="T2">
-        <v>0.0004888115989855216</v>
+        <v>0.0003132589231442812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6698093333333333</v>
+        <v>1.558369333333333</v>
       </c>
       <c r="H3">
-        <v>2.009428</v>
+        <v>4.675108</v>
       </c>
       <c r="I3">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675516</v>
       </c>
       <c r="J3">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675517</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>59.04354894759644</v>
+        <v>137.3699222033831</v>
       </c>
       <c r="R3">
-        <v>531.391940528368</v>
+        <v>1236.329299830448</v>
       </c>
       <c r="S3">
-        <v>0.01595075562810989</v>
+        <v>0.03711719289870362</v>
       </c>
       <c r="T3">
-        <v>0.01595075562810989</v>
+        <v>0.03711719289870363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6698093333333333</v>
+        <v>1.558369333333333</v>
       </c>
       <c r="H4">
-        <v>2.009428</v>
+        <v>4.675108</v>
       </c>
       <c r="I4">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675516</v>
       </c>
       <c r="J4">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675517</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>20.45049956254178</v>
+        <v>46.39047229735377</v>
       </c>
       <c r="R4">
-        <v>184.054496062876</v>
+        <v>417.514250676184</v>
       </c>
       <c r="S4">
-        <v>0.005524751252408432</v>
+        <v>0.01253465155475236</v>
       </c>
       <c r="T4">
-        <v>0.005524751252408432</v>
+        <v>0.01253465155475236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6698093333333333</v>
+        <v>1.558369333333333</v>
       </c>
       <c r="H5">
-        <v>2.009428</v>
+        <v>4.675108</v>
       </c>
       <c r="I5">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675516</v>
       </c>
       <c r="J5">
-        <v>0.02200786061987637</v>
+        <v>0.05004933090675517</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.16117621988</v>
+        <v>0.3117242539417778</v>
       </c>
       <c r="R5">
-        <v>1.45058597892</v>
+        <v>2.805518285476</v>
       </c>
       <c r="S5">
-        <v>4.354214037252655E-05</v>
+        <v>8.422753015489799E-05</v>
       </c>
       <c r="T5">
-        <v>4.354214037252655E-05</v>
+        <v>8.4227530154898E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>88.104809</v>
       </c>
       <c r="I6">
-        <v>0.9649504020113331</v>
+        <v>0.9432053206294829</v>
       </c>
       <c r="J6">
-        <v>0.9649504020113332</v>
+        <v>0.943205320629483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>79.33409273712866</v>
+        <v>21.84881790121333</v>
       </c>
       <c r="R6">
-        <v>714.0068346341579</v>
+        <v>196.63936111092</v>
       </c>
       <c r="S6">
-        <v>0.02143229444677987</v>
+        <v>0.005903525135926822</v>
       </c>
       <c r="T6">
-        <v>0.02143229444677987</v>
+        <v>0.005903525135926823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>88.104809</v>
       </c>
       <c r="I7">
-        <v>0.9649504020113331</v>
+        <v>0.9432053206294829</v>
       </c>
       <c r="J7">
-        <v>0.9649504020113332</v>
+        <v>0.943205320629483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>2588.806666728112</v>
+        <v>2588.806666728111</v>
       </c>
       <c r="R7">
-        <v>23299.26000055301</v>
+        <v>23299.260000553</v>
       </c>
       <c r="S7">
-        <v>0.6993722979973888</v>
+        <v>0.6994925445479419</v>
       </c>
       <c r="T7">
-        <v>0.6993722979973888</v>
+        <v>0.6994925445479419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>88.104809</v>
       </c>
       <c r="I8">
-        <v>0.9649504020113331</v>
+        <v>0.9432053206294829</v>
       </c>
       <c r="J8">
-        <v>0.9649504020113332</v>
+        <v>0.943205320629483</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>896.6667917000892</v>
+        <v>874.2522528202868</v>
       </c>
       <c r="R8">
-        <v>8070.001125300803</v>
+        <v>7868.270275382582</v>
       </c>
       <c r="S8">
-        <v>0.2422366732552526</v>
+        <v>0.2362219399237429</v>
       </c>
       <c r="T8">
-        <v>0.2422366732552526</v>
+        <v>0.2362219399237429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>88.104809</v>
       </c>
       <c r="I9">
-        <v>0.9649504020113331</v>
+        <v>0.9432053206294829</v>
       </c>
       <c r="J9">
-        <v>0.9649504020113332</v>
+        <v>0.943205320629483</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>7.06688672989</v>
+        <v>5.87460350738589</v>
       </c>
       <c r="R9">
-        <v>63.60198056901</v>
+        <v>52.87143156647301</v>
       </c>
       <c r="S9">
-        <v>0.001909136311911967</v>
+        <v>0.001587311021871372</v>
       </c>
       <c r="T9">
-        <v>0.001909136311911967</v>
+        <v>0.001587311021871373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3100663333333333</v>
+        <v>0.2100276666666666</v>
       </c>
       <c r="H10">
-        <v>0.930199</v>
+        <v>0.6300829999999999</v>
       </c>
       <c r="I10">
-        <v>0.01018781958883243</v>
+        <v>0.006745348463761909</v>
       </c>
       <c r="J10">
-        <v>0.01018781958883243</v>
+        <v>0.00674534846376191</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>0.8375989298153332</v>
+        <v>0.1562521828933333</v>
       </c>
       <c r="R10">
-        <v>7.538390368337999</v>
+        <v>1.40626964604</v>
       </c>
       <c r="S10">
-        <v>0.0002262793494291576</v>
+        <v>4.221915773315142E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002262793494291576</v>
+        <v>4.221915773315143E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3100663333333333</v>
+        <v>0.2100276666666666</v>
       </c>
       <c r="H11">
-        <v>0.930199</v>
+        <v>0.6300829999999999</v>
       </c>
       <c r="I11">
-        <v>0.01018781958883243</v>
+        <v>0.006745348463761909</v>
       </c>
       <c r="J11">
-        <v>0.01018781958883243</v>
+        <v>0.00674534846376191</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>27.33228072242711</v>
+        <v>18.51389373072755</v>
       </c>
       <c r="R11">
-        <v>245.990526501844</v>
+        <v>166.625043576548</v>
       </c>
       <c r="S11">
-        <v>0.007383880852915452</v>
+        <v>0.005002432511333187</v>
       </c>
       <c r="T11">
-        <v>0.007383880852915452</v>
+        <v>0.005002432511333188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3100663333333333</v>
+        <v>0.2100276666666666</v>
       </c>
       <c r="H12">
-        <v>0.930199</v>
+        <v>0.6300829999999999</v>
       </c>
       <c r="I12">
-        <v>0.01018781958883243</v>
+        <v>0.006745348463761909</v>
       </c>
       <c r="J12">
-        <v>0.01018781958883243</v>
+        <v>0.00674534846376191</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>9.466890200881444</v>
+        <v>6.252229457914887</v>
       </c>
       <c r="R12">
-        <v>85.202011807933</v>
+        <v>56.27006512123399</v>
       </c>
       <c r="S12">
-        <v>0.002557502976090247</v>
+        <v>0.001689345113647221</v>
       </c>
       <c r="T12">
-        <v>0.002557502976090247</v>
+        <v>0.001689345113647221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3100663333333333</v>
+        <v>0.2100276666666666</v>
       </c>
       <c r="H13">
-        <v>0.930199</v>
+        <v>0.6300829999999999</v>
       </c>
       <c r="I13">
-        <v>0.01018781958883243</v>
+        <v>0.006745348463761909</v>
       </c>
       <c r="J13">
-        <v>0.01018781958883243</v>
+        <v>0.00674534846376191</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>0.07461126179000001</v>
+        <v>0.04201232422788889</v>
       </c>
       <c r="R13">
-        <v>0.6715013561100001</v>
+        <v>0.3781109180510001</v>
       </c>
       <c r="S13">
-        <v>2.015641039757773E-05</v>
+        <v>1.135168104834981E-05</v>
       </c>
       <c r="T13">
-        <v>2.015641039757773E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.08685900000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.260577</v>
-      </c>
-      <c r="I14">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="J14">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.701354</v>
-      </c>
-      <c r="N14">
-        <v>8.104061999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.02221077311549548</v>
-      </c>
-      <c r="P14">
-        <v>0.02221077311549548</v>
-      </c>
-      <c r="Q14">
-        <v>0.234636907086</v>
-      </c>
-      <c r="R14">
-        <v>2.111732163774</v>
-      </c>
-      <c r="S14">
-        <v>6.338772030092658E-05</v>
-      </c>
-      <c r="T14">
-        <v>6.338772030092658E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.08685900000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.260577</v>
-      </c>
-      <c r="I15">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="J15">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>88.14978533333334</v>
-      </c>
-      <c r="N15">
-        <v>264.449356</v>
-      </c>
-      <c r="O15">
-        <v>0.7247753838328105</v>
-      </c>
-      <c r="P15">
-        <v>0.7247753838328105</v>
-      </c>
-      <c r="Q15">
-        <v>7.656602204268001</v>
-      </c>
-      <c r="R15">
-        <v>68.90941983841201</v>
-      </c>
-      <c r="S15">
-        <v>0.002068449354396371</v>
-      </c>
-      <c r="T15">
-        <v>0.002068449354396371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.08685900000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.260577</v>
-      </c>
-      <c r="I16">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="J16">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.53182233333333</v>
-      </c>
-      <c r="N16">
-        <v>91.595467</v>
-      </c>
-      <c r="O16">
-        <v>0.2510353617660938</v>
-      </c>
-      <c r="P16">
-        <v>0.2510353617660938</v>
-      </c>
-      <c r="Q16">
-        <v>2.651963556051</v>
-      </c>
-      <c r="R16">
-        <v>23.867672004459</v>
-      </c>
-      <c r="S16">
-        <v>0.0007164342823424537</v>
-      </c>
-      <c r="T16">
-        <v>0.0007164342823424537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.08685900000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.260577</v>
-      </c>
-      <c r="I17">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="J17">
-        <v>0.00285391777995804</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.24063</v>
-      </c>
-      <c r="N17">
-        <v>0.72189</v>
-      </c>
-      <c r="O17">
-        <v>0.001978481285600361</v>
-      </c>
-      <c r="P17">
-        <v>0.001978481285600361</v>
-      </c>
-      <c r="Q17">
-        <v>0.02090088117</v>
-      </c>
-      <c r="R17">
-        <v>0.18810793053</v>
-      </c>
-      <c r="S17">
-        <v>5.646422918289111E-06</v>
-      </c>
-      <c r="T17">
-        <v>5.646422918289111E-06</v>
+        <v>1.135168104834981E-05</v>
       </c>
     </row>
   </sheetData>
